--- a/sources/Umfrage Analyse.xlsx
+++ b/sources/Umfrage Analyse.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verawei/Documents/Sprachtypologie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verawei/Desktop/HA Sprachtypologie/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="6540" windowWidth="28800" windowHeight="9640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="225">
   <si>
     <t>Sprache-NR</t>
   </si>
@@ -35,12 +35,6 @@
     <t>Wortstellung</t>
   </si>
   <si>
-    <t>NP</t>
-  </si>
-  <si>
-    <t>Wortstellung NP</t>
-  </si>
-  <si>
     <t>Sonstige Anmerkungen</t>
   </si>
   <si>
@@ -651,6 +645,57 @@
   </si>
   <si>
     <t>ek sundee lal lang ri gend         (einen schönen roten Ball)</t>
+  </si>
+  <si>
+    <t>Persisch</t>
+  </si>
+  <si>
+    <t>Spanisch</t>
+  </si>
+  <si>
+    <t>NP und ihre Übersetzung</t>
+  </si>
+  <si>
+    <t>Wortstellung in NP</t>
+  </si>
+  <si>
+    <t>Mu+Mo</t>
+  </si>
+  <si>
+    <t>la musica de Mozart          (die Musik von Mozartes)</t>
+  </si>
+  <si>
+    <t>esas cinco casa grandes       (diese fünf Häuser große)</t>
+  </si>
+  <si>
+    <t>un bonito, grande y rojo balón / un balón bonito, grande y rojo</t>
+  </si>
+  <si>
+    <t>la madera humeda        (das Holz feucht)</t>
+  </si>
+  <si>
+    <t>zwei Möglichkeiten</t>
+  </si>
+  <si>
+    <t>DET+Adj+Adj+Farbe+N/ Det+N+Adj+Adj+Farbe</t>
+  </si>
+  <si>
+    <t>Mozart</t>
+  </si>
+  <si>
+    <t>panj khanehaye bozorg       (fünf Häuser groß)</t>
+  </si>
+  <si>
+    <t>tupe ghermez o bozorgi     (Ball rot groß )</t>
+  </si>
+  <si>
+    <t>Num+N+Adj</t>
+  </si>
+  <si>
+    <t>N+farbe+Adj</t>
+  </si>
+  <si>
+    <t>choobe khis          (Holz freuchte)</t>
   </si>
 </sst>
 </file>
@@ -678,7 +723,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -697,6 +742,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -712,7 +763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,6 +790,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1044,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1076,13 +1133,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1090,19 +1147,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1110,19 +1167,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1130,22 +1187,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1153,19 +1210,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1173,19 +1230,19 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1193,19 +1250,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1213,19 +1270,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1233,19 +1290,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1253,19 +1310,19 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1273,22 +1330,22 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1296,19 +1353,19 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1316,19 +1373,19 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1336,19 +1393,19 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1356,19 +1413,19 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1376,19 +1433,19 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1396,19 +1453,19 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1416,19 +1473,19 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1">
         <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1436,19 +1493,19 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1">
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1456,19 +1513,19 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1476,19 +1533,19 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1496,19 +1553,19 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1">
         <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1516,22 +1573,22 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1">
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1539,22 +1596,22 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1">
         <v>9</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1562,22 +1619,22 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1">
         <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1585,22 +1642,22 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1608,19 +1665,19 @@
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1628,22 +1685,22 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1">
         <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1651,22 +1708,22 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1">
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1674,22 +1731,22 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" s="1">
         <v>9</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1697,22 +1754,22 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C31" s="1">
         <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1720,19 +1777,19 @@
         <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1740,19 +1797,19 @@
         <v>6</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33" s="1">
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1760,19 +1817,19 @@
         <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34" s="1">
         <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1780,19 +1837,19 @@
         <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C35" s="1">
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1800,19 +1857,19 @@
         <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C36" s="1">
         <v>9</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1820,19 +1877,19 @@
         <v>6</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C37" s="1">
         <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1840,19 +1897,19 @@
         <v>7</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1860,19 +1917,19 @@
         <v>7</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C39" s="1">
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1880,22 +1937,22 @@
         <v>7</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C40" s="1">
         <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1903,22 +1960,22 @@
         <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C41" s="1">
         <v>5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1926,22 +1983,22 @@
         <v>7</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C42" s="1">
         <v>9</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1949,22 +2006,22 @@
         <v>7</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C43" s="1">
         <v>10</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1972,19 +2029,19 @@
         <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1992,22 +2049,22 @@
         <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C45" s="1">
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2015,19 +2072,19 @@
         <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C46" s="1">
         <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -2035,22 +2092,22 @@
         <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C47" s="1">
         <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -2058,19 +2115,19 @@
         <v>8</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C48" s="1">
         <v>9</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -2078,19 +2135,19 @@
         <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C49" s="1">
         <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -2098,19 +2155,19 @@
         <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -2118,22 +2175,22 @@
         <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C51" s="1">
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -2141,19 +2198,19 @@
         <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C52" s="1">
         <v>4</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -2161,22 +2218,22 @@
         <v>9</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C53" s="1">
         <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -2184,19 +2241,19 @@
         <v>9</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C54" s="1">
         <v>9</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -2204,19 +2261,19 @@
         <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C55" s="1">
         <v>10</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -2224,19 +2281,19 @@
         <v>10</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -2244,22 +2301,22 @@
         <v>10</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C57" s="1">
         <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -2267,19 +2324,19 @@
         <v>10</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C58" s="1">
         <v>4</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G58" s="6"/>
     </row>
@@ -2288,22 +2345,22 @@
         <v>10</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C59" s="1">
         <v>5</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -2311,19 +2368,19 @@
         <v>10</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C60" s="1">
         <v>9</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -2331,19 +2388,19 @@
         <v>10</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C61" s="1">
         <v>10</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -2351,19 +2408,19 @@
         <v>11</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -2371,22 +2428,22 @@
         <v>11</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C63" s="1">
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E63" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -2394,22 +2451,22 @@
         <v>11</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C64" s="1">
         <v>4</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -2417,22 +2474,22 @@
         <v>11</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C65" s="1">
         <v>5</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G65" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -2440,22 +2497,22 @@
         <v>11</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C66" s="1">
         <v>9</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -2463,22 +2520,22 @@
         <v>11</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C67" s="1">
         <v>10</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -2486,22 +2543,22 @@
         <v>12</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -2509,22 +2566,22 @@
         <v>12</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C69" s="1">
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -2532,19 +2589,19 @@
         <v>12</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C70" s="1">
         <v>4</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -2552,19 +2609,19 @@
         <v>12</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C71" s="1">
         <v>5</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -2572,22 +2629,22 @@
         <v>12</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C72" s="1">
         <v>9</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G72" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -2595,19 +2652,19 @@
         <v>12</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C73" s="1">
         <v>10</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -2615,22 +2672,22 @@
         <v>13</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -2638,19 +2695,19 @@
         <v>13</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C75" s="1">
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G75" s="5"/>
     </row>
@@ -2659,19 +2716,19 @@
         <v>13</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C76" s="1">
         <v>4</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G76" s="5"/>
     </row>
@@ -2680,19 +2737,19 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C77" s="1">
         <v>5</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G77" s="5"/>
     </row>
@@ -2701,19 +2758,19 @@
         <v>13</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C78" s="1">
         <v>9</v>
       </c>
       <c r="D78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G78" s="5"/>
     </row>
@@ -2722,19 +2779,19 @@
         <v>13</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C79" s="1">
         <v>10</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G79" s="5"/>
     </row>
@@ -2743,19 +2800,19 @@
         <v>14</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G80" s="5"/>
     </row>
@@ -2764,22 +2821,22 @@
         <v>14</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C81" s="1">
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -2787,19 +2844,19 @@
         <v>14</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C82" s="1">
         <v>4</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G82" s="5"/>
     </row>
@@ -2808,19 +2865,19 @@
         <v>14</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C83" s="1">
         <v>5</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G83" s="5"/>
     </row>
@@ -2829,19 +2886,19 @@
         <v>14</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C84" s="1">
         <v>9</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -2849,19 +2906,19 @@
         <v>14</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C85" s="1">
         <v>10</v>
       </c>
       <c r="D85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -2869,19 +2926,19 @@
         <v>15</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -2889,22 +2946,22 @@
         <v>15</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C87" s="1">
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G87" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -2912,19 +2969,19 @@
         <v>15</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C88" s="1">
         <v>4</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -2932,19 +2989,19 @@
         <v>15</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C89" s="1">
         <v>5</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -2952,19 +3009,19 @@
         <v>15</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C90" s="1">
         <v>9</v>
       </c>
       <c r="D90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -2972,19 +3029,19 @@
         <v>15</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C91" s="1">
         <v>10</v>
       </c>
       <c r="D91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -2992,19 +3049,19 @@
         <v>16</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -3012,19 +3069,19 @@
         <v>16</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C93" s="1">
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -3032,19 +3089,19 @@
         <v>16</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C94" s="1">
         <v>4</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -3052,22 +3109,22 @@
         <v>16</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C95" s="1">
         <v>5</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E95" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -3075,19 +3132,19 @@
         <v>16</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C96" s="1">
         <v>9</v>
       </c>
       <c r="D96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -3095,19 +3152,19 @@
         <v>16</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C97" s="1">
         <v>10</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -3115,19 +3172,19 @@
         <v>17</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G98" s="5"/>
     </row>
@@ -3136,19 +3193,19 @@
         <v>17</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C99" s="1">
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G99" s="5"/>
     </row>
@@ -3157,19 +3214,19 @@
         <v>17</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C100" s="1">
         <v>4</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G100" s="5"/>
     </row>
@@ -3178,19 +3235,19 @@
         <v>17</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C101" s="1">
         <v>5</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G101" s="5"/>
     </row>
@@ -3199,19 +3256,19 @@
         <v>17</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C102" s="1">
         <v>9</v>
       </c>
       <c r="D102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G102" s="5"/>
     </row>
@@ -3220,19 +3277,19 @@
         <v>17</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C103" s="1">
         <v>10</v>
       </c>
       <c r="D103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G103" s="5"/>
     </row>
@@ -3241,19 +3298,19 @@
         <v>18</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C104" s="1">
         <v>1</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G104" s="5"/>
     </row>
@@ -3262,19 +3319,19 @@
         <v>18</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C105" s="1">
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G105" s="5"/>
     </row>
@@ -3283,19 +3340,19 @@
         <v>18</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C106" s="1">
         <v>4</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G106" s="5"/>
     </row>
@@ -3304,19 +3361,19 @@
         <v>18</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C107" s="1">
         <v>5</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G107" s="5"/>
     </row>
@@ -3325,19 +3382,19 @@
         <v>18</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C108" s="1">
         <v>9</v>
       </c>
       <c r="D108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G108" s="5"/>
     </row>
@@ -3346,19 +3403,19 @@
         <v>18</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C109" s="1">
         <v>10</v>
       </c>
       <c r="D109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G109" s="5"/>
     </row>
@@ -3367,22 +3424,22 @@
         <v>19</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C110" s="1">
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -3390,19 +3447,19 @@
         <v>19</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C111" s="1">
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -3410,19 +3467,19 @@
         <v>19</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C112" s="1">
         <v>4</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -3430,19 +3487,19 @@
         <v>19</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C113" s="1">
         <v>5</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -3450,19 +3507,19 @@
         <v>19</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C114" s="1">
         <v>9</v>
       </c>
       <c r="D114" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -3470,19 +3527,19 @@
         <v>19</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C115" s="1">
         <v>10</v>
       </c>
       <c r="D115" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -3490,22 +3547,22 @@
         <v>20</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C116" s="1">
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -3513,19 +3570,19 @@
         <v>20</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C117" s="1">
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -3533,19 +3590,19 @@
         <v>20</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C118" s="1">
         <v>4</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G118" s="5"/>
     </row>
@@ -3554,22 +3611,22 @@
         <v>20</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C119" s="1">
         <v>5</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -3577,19 +3634,19 @@
         <v>20</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C120" s="1">
         <v>9</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G120" s="5"/>
     </row>
@@ -3598,19 +3655,19 @@
         <v>20</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C121" s="1">
         <v>10</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -3618,19 +3675,19 @@
         <v>21</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C122" s="1">
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -3638,19 +3695,19 @@
         <v>21</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C123" s="1">
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -3658,19 +3715,19 @@
         <v>21</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C124" s="1">
         <v>4</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G124" s="5"/>
     </row>
@@ -3679,19 +3736,19 @@
         <v>21</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C125" s="1">
         <v>5</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G125" s="5"/>
     </row>
@@ -3700,19 +3757,19 @@
         <v>21</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C126" s="1">
         <v>9</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G126" s="5"/>
     </row>
@@ -3721,19 +3778,19 @@
         <v>21</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C127" s="1">
         <v>10</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G127" s="5"/>
     </row>
@@ -3742,19 +3799,19 @@
         <v>22</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C128" s="1">
         <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -3762,19 +3819,19 @@
         <v>22</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C129" s="1">
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -3782,19 +3839,19 @@
         <v>22</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C130" s="1">
         <v>4</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -3802,19 +3859,19 @@
         <v>22</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C131" s="1">
         <v>5</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -3822,19 +3879,19 @@
         <v>22</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C132" s="1">
         <v>9</v>
       </c>
       <c r="D132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -3842,19 +3899,19 @@
         <v>22</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C133" s="1">
         <v>10</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -3862,19 +3919,19 @@
         <v>23</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C134" s="1">
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -3882,19 +3939,19 @@
         <v>23</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C135" s="1">
         <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -3902,19 +3959,19 @@
         <v>23</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C136" s="1">
         <v>4</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G136" s="5"/>
     </row>
@@ -3923,19 +3980,19 @@
         <v>23</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C137" s="1">
         <v>5</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E137" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -3943,19 +4000,19 @@
         <v>23</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C138" s="1">
         <v>9</v>
       </c>
       <c r="D138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -3963,19 +4020,19 @@
         <v>23</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C139" s="1">
         <v>10</v>
       </c>
       <c r="D139" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F139" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -3983,19 +4040,19 @@
         <v>24</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C140" s="1">
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -4003,19 +4060,19 @@
         <v>24</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C141" s="1">
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -4023,19 +4080,19 @@
         <v>24</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C142" s="1">
         <v>4</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -4043,19 +4100,247 @@
         <v>24</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C143" s="1">
         <v>5</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>24</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C144" s="1">
+        <v>10</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>25</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G145" s="10"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>25</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C146" s="1">
+        <v>3</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G146" s="10"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>25</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C147" s="1">
+        <v>4</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G147" s="10"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>25</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C148" s="1">
+        <v>5</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G148" s="10"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>25</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C149" s="1">
+        <v>10</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G149" s="10"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>26</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C150" s="1">
+        <v>1</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>26</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C151" s="1">
+        <v>3</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>26</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C152" s="1">
+        <v>4</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>26</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C153" s="1">
+        <v>5</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G153" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>26</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C154" s="1">
+        <v>10</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/sources/Umfrage Analyse.xlsx
+++ b/sources/Umfrage Analyse.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6540" windowWidth="28800" windowHeight="9640"/>
+    <workbookView xWindow="9780" yWindow="720" windowWidth="21920" windowHeight="15080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F150" sqref="F150"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/sources/Umfrage Analyse.xlsx
+++ b/sources/Umfrage Analyse.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9780" yWindow="720" windowWidth="21920" windowHeight="15080"/>
+    <workbookView xWindow="13420" yWindow="720" windowWidth="15380" windowHeight="15080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,6 @@
     <t>Satznummer</t>
   </si>
   <si>
-    <t>Wortstellung</t>
-  </si>
-  <si>
     <t>Sonstige Anmerkungen</t>
   </si>
   <si>
@@ -696,6 +693,9 @@
   </si>
   <si>
     <t>choobe khis          (Holz freuchte)</t>
+  </si>
+  <si>
+    <t>Wortfolge</t>
   </si>
 </sst>
 </file>
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E150" sqref="E150"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1130,16 +1130,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1147,19 +1147,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1167,19 +1167,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1187,22 +1187,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1210,19 +1210,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1230,19 +1230,19 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1250,19 +1250,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1270,19 +1270,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1290,19 +1290,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1310,19 +1310,19 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1330,22 +1330,22 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1353,19 +1353,19 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1">
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1373,19 +1373,19 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1393,19 +1393,19 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1413,19 +1413,19 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1433,19 +1433,19 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1453,19 +1453,19 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1473,19 +1473,19 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1">
         <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1493,19 +1493,19 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1">
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1513,19 +1513,19 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1533,19 +1533,19 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1553,19 +1553,19 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1">
         <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1573,22 +1573,22 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1">
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1596,22 +1596,22 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1">
         <v>9</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1619,22 +1619,22 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1">
         <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1642,22 +1642,22 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1665,19 +1665,19 @@
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1685,22 +1685,22 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1">
         <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1708,22 +1708,22 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="1">
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1731,22 +1731,22 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="1">
         <v>9</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1754,22 +1754,22 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="1">
         <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1777,19 +1777,19 @@
         <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1797,19 +1797,19 @@
         <v>6</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="1">
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1817,19 +1817,19 @@
         <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="1">
         <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1837,19 +1837,19 @@
         <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="1">
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1857,19 +1857,19 @@
         <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="1">
         <v>9</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1877,19 +1877,19 @@
         <v>6</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="1">
         <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1897,19 +1897,19 @@
         <v>7</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1917,19 +1917,19 @@
         <v>7</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" s="1">
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1937,22 +1937,22 @@
         <v>7</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="1">
         <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1960,22 +1960,22 @@
         <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="1">
         <v>5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="G41" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1983,22 +1983,22 @@
         <v>7</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="1">
         <v>9</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -2006,22 +2006,22 @@
         <v>7</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="1">
         <v>10</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -2029,19 +2029,19 @@
         <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2049,22 +2049,22 @@
         <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C45" s="1">
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2072,19 +2072,19 @@
         <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C46" s="1">
         <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -2092,22 +2092,22 @@
         <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" s="1">
         <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -2115,19 +2115,19 @@
         <v>8</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48" s="1">
         <v>9</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -2135,19 +2135,19 @@
         <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" s="1">
         <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -2155,19 +2155,19 @@
         <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -2175,22 +2175,22 @@
         <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="1">
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F51" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -2198,19 +2198,19 @@
         <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C52" s="1">
         <v>4</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -2218,22 +2218,22 @@
         <v>9</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C53" s="1">
         <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -2241,19 +2241,19 @@
         <v>9</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" s="1">
         <v>9</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -2261,19 +2261,19 @@
         <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C55" s="1">
         <v>10</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -2281,19 +2281,19 @@
         <v>10</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -2301,22 +2301,22 @@
         <v>10</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C57" s="1">
         <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F57" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -2324,19 +2324,19 @@
         <v>10</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C58" s="1">
         <v>4</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G58" s="6"/>
     </row>
@@ -2345,22 +2345,22 @@
         <v>10</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C59" s="1">
         <v>5</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -2368,19 +2368,19 @@
         <v>10</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C60" s="1">
         <v>9</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -2388,19 +2388,19 @@
         <v>10</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C61" s="1">
         <v>10</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -2408,19 +2408,19 @@
         <v>11</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -2428,22 +2428,22 @@
         <v>11</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C63" s="1">
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E63" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -2451,22 +2451,22 @@
         <v>11</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C64" s="1">
         <v>4</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -2474,22 +2474,22 @@
         <v>11</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C65" s="1">
         <v>5</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -2497,22 +2497,22 @@
         <v>11</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C66" s="1">
         <v>9</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -2520,22 +2520,22 @@
         <v>11</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C67" s="1">
         <v>10</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -2543,22 +2543,22 @@
         <v>12</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -2566,22 +2566,22 @@
         <v>12</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C69" s="1">
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E69" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G69" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -2589,19 +2589,19 @@
         <v>12</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C70" s="1">
         <v>4</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -2609,19 +2609,19 @@
         <v>12</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C71" s="1">
         <v>5</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -2629,22 +2629,22 @@
         <v>12</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C72" s="1">
         <v>9</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -2652,19 +2652,19 @@
         <v>12</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C73" s="1">
         <v>10</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -2672,22 +2672,22 @@
         <v>13</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -2695,19 +2695,19 @@
         <v>13</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C75" s="1">
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G75" s="5"/>
     </row>
@@ -2716,19 +2716,19 @@
         <v>13</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C76" s="1">
         <v>4</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G76" s="5"/>
     </row>
@@ -2737,19 +2737,19 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C77" s="1">
         <v>5</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G77" s="5"/>
     </row>
@@ -2758,19 +2758,19 @@
         <v>13</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C78" s="1">
         <v>9</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G78" s="5"/>
     </row>
@@ -2779,19 +2779,19 @@
         <v>13</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C79" s="1">
         <v>10</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G79" s="5"/>
     </row>
@@ -2800,19 +2800,19 @@
         <v>14</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G80" s="5"/>
     </row>
@@ -2821,22 +2821,22 @@
         <v>14</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C81" s="1">
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E81" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="G81" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -2844,19 +2844,19 @@
         <v>14</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C82" s="1">
         <v>4</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G82" s="5"/>
     </row>
@@ -2865,19 +2865,19 @@
         <v>14</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C83" s="1">
         <v>5</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E83" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="G83" s="5"/>
     </row>
@@ -2886,19 +2886,19 @@
         <v>14</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C84" s="1">
         <v>9</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -2906,19 +2906,19 @@
         <v>14</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C85" s="1">
         <v>10</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -2926,19 +2926,19 @@
         <v>15</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -2946,22 +2946,22 @@
         <v>15</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C87" s="1">
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="G87" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -2969,19 +2969,19 @@
         <v>15</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C88" s="1">
         <v>4</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E88" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -2989,19 +2989,19 @@
         <v>15</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="1">
         <v>5</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E89" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -3009,19 +3009,19 @@
         <v>15</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C90" s="1">
         <v>9</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -3029,19 +3029,19 @@
         <v>15</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C91" s="1">
         <v>10</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -3049,19 +3049,19 @@
         <v>16</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -3069,19 +3069,19 @@
         <v>16</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C93" s="1">
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -3089,19 +3089,19 @@
         <v>16</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C94" s="1">
         <v>4</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -3109,22 +3109,22 @@
         <v>16</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C95" s="1">
         <v>5</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E95" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="G95" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -3132,19 +3132,19 @@
         <v>16</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C96" s="1">
         <v>9</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -3152,19 +3152,19 @@
         <v>16</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C97" s="1">
         <v>10</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -3172,19 +3172,19 @@
         <v>17</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G98" s="5"/>
     </row>
@@ -3193,19 +3193,19 @@
         <v>17</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C99" s="1">
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G99" s="5"/>
     </row>
@@ -3214,19 +3214,19 @@
         <v>17</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C100" s="1">
         <v>4</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E100" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="G100" s="5"/>
     </row>
@@ -3235,19 +3235,19 @@
         <v>17</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C101" s="1">
         <v>5</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E101" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="G101" s="5"/>
     </row>
@@ -3256,19 +3256,19 @@
         <v>17</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C102" s="1">
         <v>9</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G102" s="5"/>
     </row>
@@ -3277,19 +3277,19 @@
         <v>17</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C103" s="1">
         <v>10</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G103" s="5"/>
     </row>
@@ -3298,19 +3298,19 @@
         <v>18</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C104" s="1">
         <v>1</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G104" s="5"/>
     </row>
@@ -3319,19 +3319,19 @@
         <v>18</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C105" s="1">
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G105" s="5"/>
     </row>
@@ -3340,19 +3340,19 @@
         <v>18</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C106" s="1">
         <v>4</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G106" s="5"/>
     </row>
@@ -3361,19 +3361,19 @@
         <v>18</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C107" s="1">
         <v>5</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G107" s="5"/>
     </row>
@@ -3382,19 +3382,19 @@
         <v>18</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C108" s="1">
         <v>9</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G108" s="5"/>
     </row>
@@ -3403,19 +3403,19 @@
         <v>18</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C109" s="1">
         <v>10</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G109" s="5"/>
     </row>
@@ -3424,22 +3424,22 @@
         <v>19</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C110" s="1">
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -3447,19 +3447,19 @@
         <v>19</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C111" s="1">
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -3467,19 +3467,19 @@
         <v>19</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C112" s="1">
         <v>4</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -3487,19 +3487,19 @@
         <v>19</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C113" s="1">
         <v>5</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -3507,19 +3507,19 @@
         <v>19</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C114" s="1">
         <v>9</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -3527,19 +3527,19 @@
         <v>19</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C115" s="1">
         <v>10</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -3547,22 +3547,22 @@
         <v>20</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C116" s="1">
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -3570,19 +3570,19 @@
         <v>20</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C117" s="1">
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -3590,19 +3590,19 @@
         <v>20</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C118" s="1">
         <v>4</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G118" s="5"/>
     </row>
@@ -3611,22 +3611,22 @@
         <v>20</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C119" s="1">
         <v>5</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -3634,19 +3634,19 @@
         <v>20</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C120" s="1">
         <v>9</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G120" s="5"/>
     </row>
@@ -3655,19 +3655,19 @@
         <v>20</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C121" s="1">
+        <v>10</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C121" s="1">
-        <v>10</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="G121" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -3675,19 +3675,19 @@
         <v>21</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C122" s="1">
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -3695,19 +3695,19 @@
         <v>21</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C123" s="1">
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -3715,19 +3715,19 @@
         <v>21</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C124" s="1">
         <v>4</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E124" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="G124" s="5"/>
     </row>
@@ -3736,19 +3736,19 @@
         <v>21</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C125" s="1">
         <v>5</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E125" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="G125" s="5"/>
     </row>
@@ -3757,19 +3757,19 @@
         <v>21</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C126" s="1">
         <v>9</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G126" s="5"/>
     </row>
@@ -3778,19 +3778,19 @@
         <v>21</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C127" s="1">
         <v>10</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G127" s="5"/>
     </row>
@@ -3799,19 +3799,19 @@
         <v>22</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C128" s="1">
         <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -3819,19 +3819,19 @@
         <v>22</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C129" s="1">
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -3839,19 +3839,19 @@
         <v>22</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C130" s="1">
         <v>4</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -3859,19 +3859,19 @@
         <v>22</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C131" s="1">
         <v>5</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E131" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -3879,19 +3879,19 @@
         <v>22</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C132" s="1">
         <v>9</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -3899,19 +3899,19 @@
         <v>22</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C133" s="1">
         <v>10</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -3919,19 +3919,19 @@
         <v>23</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C134" s="1">
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -3939,19 +3939,19 @@
         <v>23</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C135" s="1">
         <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E135" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -3959,19 +3959,19 @@
         <v>23</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C136" s="1">
         <v>4</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E136" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="G136" s="5"/>
     </row>
@@ -3980,19 +3980,19 @@
         <v>23</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C137" s="1">
         <v>5</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -4000,19 +4000,19 @@
         <v>23</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C138" s="1">
         <v>9</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -4020,19 +4020,19 @@
         <v>23</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C139" s="1">
         <v>10</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -4040,19 +4040,19 @@
         <v>24</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C140" s="1">
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -4060,19 +4060,19 @@
         <v>24</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C141" s="1">
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -4080,19 +4080,19 @@
         <v>24</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C142" s="1">
         <v>4</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -4100,19 +4100,19 @@
         <v>24</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C143" s="1">
         <v>5</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E143" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -4120,19 +4120,19 @@
         <v>24</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C144" s="1">
         <v>10</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
@@ -4140,19 +4140,19 @@
         <v>25</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C145" s="1">
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G145" s="10"/>
     </row>
@@ -4161,19 +4161,19 @@
         <v>25</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C146" s="1">
         <v>3</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G146" s="10"/>
     </row>
@@ -4182,19 +4182,19 @@
         <v>25</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C147" s="1">
         <v>4</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G147" s="10"/>
     </row>
@@ -4203,19 +4203,19 @@
         <v>25</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C148" s="1">
         <v>5</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G148" s="10"/>
     </row>
@@ -4224,19 +4224,19 @@
         <v>25</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C149" s="1">
         <v>10</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G149" s="10"/>
     </row>
@@ -4245,19 +4245,19 @@
         <v>26</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C150" s="1">
         <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
@@ -4265,19 +4265,19 @@
         <v>26</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C151" s="1">
         <v>3</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
@@ -4285,19 +4285,19 @@
         <v>26</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C152" s="1">
         <v>4</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
@@ -4305,22 +4305,22 @@
         <v>26</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C153" s="1">
         <v>5</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
@@ -4328,19 +4328,19 @@
         <v>26</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C154" s="1">
         <v>10</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/sources/Umfrage Analyse.xlsx
+++ b/sources/Umfrage Analyse.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="G127" s="5"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>22</v>
       </c>
